--- a/ExportData/Data User4 Test 0.xlsx
+++ b/ExportData/Data User4 Test 0.xlsx
@@ -17,10 +17,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
+  <numFmts count="2">
     <numFmt formatCode="DD/MM/YYYY HH:MM" numFmtId="164"/>
     <numFmt formatCode="#,##0.000" numFmtId="165"/>
-    <numFmt formatCode="yyyy-mm-dd h:mm:ss" numFmtId="166"/>
   </numFmts>
   <fonts count="3">
     <font>
@@ -444,7 +443,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B3:M152"/>
+  <dimension ref="B3:M291"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5268,8 +5267,12 @@
       <c r="B152" s="4" t="n">
         <v>44229.54166666666</v>
       </c>
-      <c r="C152" s="6" t="n"/>
-      <c r="D152" s="6" t="n"/>
+      <c r="C152" s="5" t="n">
+        <v>20.32</v>
+      </c>
+      <c r="D152" s="5" t="n">
+        <v>0.13</v>
+      </c>
       <c r="E152" s="6" t="n">
         <v>0</v>
       </c>
@@ -5289,6 +5292,4454 @@
         <v>0</v>
       </c>
       <c r="K152" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="B153" s="4" t="n">
+        <v>44229.55208333334</v>
+      </c>
+      <c r="C153" s="5" t="n">
+        <v>20.51</v>
+      </c>
+      <c r="D153" s="5" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="E153" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F153" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="G153" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H153" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="I153" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J153" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K153" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="B154" s="4" t="n">
+        <v>44229.5625</v>
+      </c>
+      <c r="C154" s="5" t="n">
+        <v>20.69</v>
+      </c>
+      <c r="D154" s="5" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="E154" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F154" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="G154" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H154" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="I154" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J154" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K154" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="B155" s="4" t="n">
+        <v>44229.57291666666</v>
+      </c>
+      <c r="C155" s="5" t="n">
+        <v>20.88</v>
+      </c>
+      <c r="D155" s="5" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="E155" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F155" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="G155" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H155" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="I155" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J155" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K155" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="B156" s="4" t="n">
+        <v>44229.58333333334</v>
+      </c>
+      <c r="C156" s="5" t="n">
+        <v>21.07</v>
+      </c>
+      <c r="D156" s="5" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="E156" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F156" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="G156" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H156" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="I156" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J156" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K156" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="B157" s="4" t="n">
+        <v>44229.59375</v>
+      </c>
+      <c r="C157" s="5" t="n">
+        <v>21.24</v>
+      </c>
+      <c r="D157" s="5" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="E157" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F157" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="G157" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H157" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="I157" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J157" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K157" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="B158" s="4" t="n">
+        <v>44229.60416666666</v>
+      </c>
+      <c r="C158" s="5" t="n">
+        <v>21.38</v>
+      </c>
+      <c r="D158" s="5" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="E158" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F158" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="G158" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H158" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="I158" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J158" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K158" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="B159" s="4" t="n">
+        <v>44229.61458333334</v>
+      </c>
+      <c r="C159" s="5" t="n">
+        <v>21.52</v>
+      </c>
+      <c r="D159" s="5" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="E159" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F159" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="G159" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H159" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="I159" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J159" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K159" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="B160" s="4" t="n">
+        <v>44229.625</v>
+      </c>
+      <c r="C160" s="5" t="n">
+        <v>21.66</v>
+      </c>
+      <c r="D160" s="5" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="E160" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F160" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="G160" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H160" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="I160" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J160" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K160" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="B161" s="4" t="n">
+        <v>44229.63541666666</v>
+      </c>
+      <c r="C161" s="5" t="n">
+        <v>21.83</v>
+      </c>
+      <c r="D161" s="5" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="E161" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F161" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="G161" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H161" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="I161" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J161" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K161" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="B162" s="4" t="n">
+        <v>44229.64583333334</v>
+      </c>
+      <c r="C162" s="5" t="n">
+        <v>22</v>
+      </c>
+      <c r="D162" s="5" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="E162" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F162" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="G162" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H162" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="I162" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J162" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K162" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="B163" s="4" t="n">
+        <v>44229.65625</v>
+      </c>
+      <c r="C163" s="5" t="n">
+        <v>22.17</v>
+      </c>
+      <c r="D163" s="5" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="E163" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F163" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="G163" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H163" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="I163" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J163" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K163" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="B164" s="4" t="n">
+        <v>44229.66666666666</v>
+      </c>
+      <c r="C164" s="5" t="n">
+        <v>22.41</v>
+      </c>
+      <c r="D164" s="5" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="E164" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F164" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="G164" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H164" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="I164" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J164" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K164" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="B165" s="4" t="n">
+        <v>44229.67708333334</v>
+      </c>
+      <c r="C165" s="5" t="n">
+        <v>22.71</v>
+      </c>
+      <c r="D165" s="5" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="E165" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F165" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="G165" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H165" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="I165" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J165" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K165" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="B166" s="4" t="n">
+        <v>44229.6875</v>
+      </c>
+      <c r="C166" s="5" t="n">
+        <v>23.01</v>
+      </c>
+      <c r="D166" s="5" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="E166" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F166" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="G166" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H166" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="I166" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J166" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K166" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="B167" s="4" t="n">
+        <v>44229.69791666666</v>
+      </c>
+      <c r="C167" s="5" t="n">
+        <v>23.31</v>
+      </c>
+      <c r="D167" s="5" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="E167" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F167" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="G167" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H167" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="I167" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J167" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K167" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="B168" s="4" t="n">
+        <v>44229.70833333334</v>
+      </c>
+      <c r="C168" s="5" t="n">
+        <v>23.61</v>
+      </c>
+      <c r="D168" s="5" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="E168" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F168" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="G168" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H168" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="I168" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J168" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K168" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="B169" s="4" t="n">
+        <v>44229.71875</v>
+      </c>
+      <c r="C169" s="5" t="n">
+        <v>23.91</v>
+      </c>
+      <c r="D169" s="5" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="E169" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F169" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="G169" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H169" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="I169" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J169" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K169" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="B170" s="4" t="n">
+        <v>44229.72916666666</v>
+      </c>
+      <c r="C170" s="5" t="n">
+        <v>24.21</v>
+      </c>
+      <c r="D170" s="5" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="E170" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F170" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="G170" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H170" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="I170" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J170" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K170" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="B171" s="4" t="n">
+        <v>44229.73958333334</v>
+      </c>
+      <c r="C171" s="5" t="n">
+        <v>24.51</v>
+      </c>
+      <c r="D171" s="5" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="E171" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F171" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="G171" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H171" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="I171" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J171" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K171" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="B172" s="4" t="n">
+        <v>44229.75</v>
+      </c>
+      <c r="C172" s="5" t="n">
+        <v>24.81</v>
+      </c>
+      <c r="D172" s="5" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="E172" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F172" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="G172" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H172" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="I172" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J172" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K172" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="B173" s="4" t="n">
+        <v>44229.76041666666</v>
+      </c>
+      <c r="C173" s="5" t="n">
+        <v>25.11</v>
+      </c>
+      <c r="D173" s="5" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="E173" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F173" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="G173" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H173" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="I173" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J173" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K173" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="B174" s="4" t="n">
+        <v>44229.77083333334</v>
+      </c>
+      <c r="C174" s="5" t="n">
+        <v>25.41</v>
+      </c>
+      <c r="D174" s="5" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="E174" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F174" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="G174" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H174" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="I174" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J174" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K174" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="B175" s="4" t="n">
+        <v>44229.78125</v>
+      </c>
+      <c r="C175" s="5" t="n">
+        <v>25.71</v>
+      </c>
+      <c r="D175" s="5" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="E175" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F175" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="G175" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H175" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="I175" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J175" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K175" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="B176" s="4" t="n">
+        <v>44229.79166666666</v>
+      </c>
+      <c r="C176" s="5" t="n">
+        <v>26.01</v>
+      </c>
+      <c r="D176" s="5" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="E176" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F176" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="G176" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H176" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="I176" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J176" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K176" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="B177" s="4" t="n">
+        <v>44229.80208333334</v>
+      </c>
+      <c r="C177" s="5" t="n">
+        <v>26.31</v>
+      </c>
+      <c r="D177" s="5" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="E177" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F177" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="G177" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H177" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="I177" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J177" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K177" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="B178" s="4" t="n">
+        <v>44229.8125</v>
+      </c>
+      <c r="C178" s="5" t="n">
+        <v>26.61</v>
+      </c>
+      <c r="D178" s="5" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="E178" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F178" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="G178" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H178" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="I178" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J178" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K178" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="B179" s="4" t="n">
+        <v>44229.82291666666</v>
+      </c>
+      <c r="C179" s="5" t="n">
+        <v>26.91</v>
+      </c>
+      <c r="D179" s="5" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="E179" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F179" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="G179" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H179" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="I179" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J179" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K179" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="B180" s="4" t="n">
+        <v>44229.83333333334</v>
+      </c>
+      <c r="C180" s="5" t="n">
+        <v>27.21</v>
+      </c>
+      <c r="D180" s="5" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="E180" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F180" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="G180" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H180" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="I180" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J180" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K180" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="B181" s="4" t="n">
+        <v>44229.84375</v>
+      </c>
+      <c r="C181" s="5" t="n">
+        <v>27.51</v>
+      </c>
+      <c r="D181" s="5" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="E181" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F181" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="G181" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H181" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="I181" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J181" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K181" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="B182" s="4" t="n">
+        <v>44229.85416666666</v>
+      </c>
+      <c r="C182" s="5" t="n">
+        <v>27.81</v>
+      </c>
+      <c r="D182" s="5" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="E182" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F182" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="G182" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H182" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="I182" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J182" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K182" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="B183" s="4" t="n">
+        <v>44229.86458333334</v>
+      </c>
+      <c r="C183" s="5" t="n">
+        <v>28.11</v>
+      </c>
+      <c r="D183" s="5" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="E183" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F183" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="G183" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H183" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="I183" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J183" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K183" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="B184" s="4" t="n">
+        <v>44229.875</v>
+      </c>
+      <c r="C184" s="5" t="n">
+        <v>28.41</v>
+      </c>
+      <c r="D184" s="5" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="E184" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F184" s="6" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="G184" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H184" s="6" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="I184" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J184" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K184" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="B185" s="4" t="n">
+        <v>44229.88541666666</v>
+      </c>
+      <c r="C185" s="5" t="n">
+        <v>28.49</v>
+      </c>
+      <c r="D185" s="5" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="E185" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F185" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G185" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H185" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I185" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J185" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K185" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="B186" s="4" t="n">
+        <v>44229.89583333334</v>
+      </c>
+      <c r="C186" s="5" t="n">
+        <v>28.56</v>
+      </c>
+      <c r="D186" s="5" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="E186" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F186" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G186" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H186" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I186" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J186" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K186" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="B187" s="4" t="n">
+        <v>44229.90625</v>
+      </c>
+      <c r="C187" s="5" t="n">
+        <v>28.64</v>
+      </c>
+      <c r="D187" s="5" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="E187" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F187" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G187" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H187" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I187" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J187" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K187" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="B188" s="4" t="n">
+        <v>44229.91666666666</v>
+      </c>
+      <c r="C188" s="5" t="n">
+        <v>28.66</v>
+      </c>
+      <c r="D188" s="5" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="E188" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F188" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G188" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H188" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I188" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J188" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K188" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="B189" s="4" t="n">
+        <v>44229.92708333334</v>
+      </c>
+      <c r="C189" s="5" t="n">
+        <v>28.69</v>
+      </c>
+      <c r="D189" s="5" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="E189" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F189" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G189" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H189" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I189" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J189" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K189" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="B190" s="4" t="n">
+        <v>44229.9375</v>
+      </c>
+      <c r="C190" s="5" t="n">
+        <v>28.71</v>
+      </c>
+      <c r="D190" s="5" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="E190" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F190" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G190" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H190" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I190" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J190" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K190" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="B191" s="4" t="n">
+        <v>44229.94791666666</v>
+      </c>
+      <c r="C191" s="5" t="n">
+        <v>28.74</v>
+      </c>
+      <c r="D191" s="5" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="E191" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F191" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G191" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H191" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I191" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J191" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K191" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="B192" s="4" t="n">
+        <v>44229.95833333334</v>
+      </c>
+      <c r="C192" s="5" t="n">
+        <v>28.76</v>
+      </c>
+      <c r="D192" s="5" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="E192" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F192" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G192" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H192" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I192" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J192" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K192" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="B193" s="4" t="n">
+        <v>44229.96875</v>
+      </c>
+      <c r="C193" s="5" t="n">
+        <v>28.79</v>
+      </c>
+      <c r="D193" s="5" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="E193" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F193" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G193" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H193" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I193" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J193" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K193" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="B194" s="4" t="n">
+        <v>44229.97916666666</v>
+      </c>
+      <c r="C194" s="5" t="n">
+        <v>28.81</v>
+      </c>
+      <c r="D194" s="5" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="E194" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F194" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G194" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H194" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I194" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J194" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K194" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="B195" s="4" t="n">
+        <v>44229.98958333334</v>
+      </c>
+      <c r="C195" s="5" t="n">
+        <v>28.84</v>
+      </c>
+      <c r="D195" s="5" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="E195" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F195" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G195" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H195" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I195" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J195" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K195" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="B196" s="4" t="n">
+        <v>44230</v>
+      </c>
+      <c r="C196" s="5" t="n">
+        <v>28.86</v>
+      </c>
+      <c r="D196" s="5" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="E196" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F196" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G196" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H196" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I196" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J196" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K196" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="B197" s="4" t="n">
+        <v>44230.01041666666</v>
+      </c>
+      <c r="C197" s="5" t="n">
+        <v>28.89</v>
+      </c>
+      <c r="D197" s="5" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="E197" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F197" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G197" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H197" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I197" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J197" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K197" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="B198" s="4" t="n">
+        <v>44230.02083333334</v>
+      </c>
+      <c r="C198" s="5" t="n">
+        <v>28.91</v>
+      </c>
+      <c r="D198" s="5" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="E198" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F198" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G198" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H198" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I198" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J198" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K198" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="B199" s="4" t="n">
+        <v>44230.03125</v>
+      </c>
+      <c r="C199" s="5" t="n">
+        <v>28.94</v>
+      </c>
+      <c r="D199" s="5" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="E199" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F199" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G199" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H199" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I199" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J199" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K199" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="B200" s="4" t="n">
+        <v>44230.04166666666</v>
+      </c>
+      <c r="C200" s="5" t="n">
+        <v>28.96</v>
+      </c>
+      <c r="D200" s="5" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="E200" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F200" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G200" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H200" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I200" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J200" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K200" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="B201" s="4" t="n">
+        <v>44230.05208333334</v>
+      </c>
+      <c r="C201" s="5" t="n">
+        <v>28.99</v>
+      </c>
+      <c r="D201" s="5" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="E201" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F201" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G201" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H201" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I201" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J201" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K201" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="B202" s="4" t="n">
+        <v>44230.0625</v>
+      </c>
+      <c r="C202" s="5" t="n">
+        <v>29.01</v>
+      </c>
+      <c r="D202" s="5" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="E202" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F202" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G202" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H202" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I202" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J202" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K202" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="B203" s="4" t="n">
+        <v>44230.07291666666</v>
+      </c>
+      <c r="C203" s="5" t="n">
+        <v>29.04</v>
+      </c>
+      <c r="D203" s="5" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="E203" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F203" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G203" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H203" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I203" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J203" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K203" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="B204" s="4" t="n">
+        <v>44230.08333333334</v>
+      </c>
+      <c r="C204" s="5" t="n">
+        <v>29.06</v>
+      </c>
+      <c r="D204" s="5" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="E204" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F204" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G204" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H204" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I204" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J204" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K204" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="B205" s="4" t="n">
+        <v>44230.09375</v>
+      </c>
+      <c r="C205" s="5" t="n">
+        <v>29.09</v>
+      </c>
+      <c r="D205" s="5" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="E205" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F205" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G205" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H205" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I205" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J205" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K205" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="B206" s="4" t="n">
+        <v>44230.10416666666</v>
+      </c>
+      <c r="C206" s="5" t="n">
+        <v>29.11</v>
+      </c>
+      <c r="D206" s="5" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="E206" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F206" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G206" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H206" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I206" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J206" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K206" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="B207" s="4" t="n">
+        <v>44230.11458333334</v>
+      </c>
+      <c r="C207" s="5" t="n">
+        <v>29.14</v>
+      </c>
+      <c r="D207" s="5" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="E207" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F207" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G207" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H207" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I207" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J207" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K207" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="B208" s="4" t="n">
+        <v>44230.125</v>
+      </c>
+      <c r="C208" s="5" t="n">
+        <v>29.16</v>
+      </c>
+      <c r="D208" s="5" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="E208" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F208" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G208" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H208" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I208" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J208" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K208" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="B209" s="4" t="n">
+        <v>44230.13541666666</v>
+      </c>
+      <c r="C209" s="5" t="n">
+        <v>29.19</v>
+      </c>
+      <c r="D209" s="5" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="E209" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F209" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G209" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H209" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I209" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J209" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K209" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="B210" s="4" t="n">
+        <v>44230.14583333334</v>
+      </c>
+      <c r="C210" s="5" t="n">
+        <v>29.21</v>
+      </c>
+      <c r="D210" s="5" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="E210" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F210" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G210" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H210" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I210" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J210" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K210" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="B211" s="4" t="n">
+        <v>44230.15625</v>
+      </c>
+      <c r="C211" s="5" t="n">
+        <v>29.24</v>
+      </c>
+      <c r="D211" s="5" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="E211" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F211" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G211" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H211" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I211" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J211" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K211" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="B212" s="4" t="n">
+        <v>44230.16666666666</v>
+      </c>
+      <c r="C212" s="5" t="n">
+        <v>29.26</v>
+      </c>
+      <c r="D212" s="5" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="E212" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F212" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G212" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H212" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I212" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J212" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K212" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="B213" s="4" t="n">
+        <v>44230.17708333334</v>
+      </c>
+      <c r="C213" s="5" t="n">
+        <v>29.29</v>
+      </c>
+      <c r="D213" s="5" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="E213" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F213" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G213" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H213" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I213" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J213" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K213" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="B214" s="4" t="n">
+        <v>44230.1875</v>
+      </c>
+      <c r="C214" s="5" t="n">
+        <v>29.31</v>
+      </c>
+      <c r="D214" s="5" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="E214" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F214" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G214" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H214" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I214" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J214" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K214" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="B215" s="4" t="n">
+        <v>44230.19791666666</v>
+      </c>
+      <c r="C215" s="5" t="n">
+        <v>29.34</v>
+      </c>
+      <c r="D215" s="5" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="E215" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F215" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G215" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H215" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I215" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J215" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K215" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="B216" s="4" t="n">
+        <v>44230.20833333334</v>
+      </c>
+      <c r="C216" s="5" t="n">
+        <v>29.36</v>
+      </c>
+      <c r="D216" s="5" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="E216" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F216" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G216" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H216" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I216" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J216" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K216" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="B217" s="4" t="n">
+        <v>44230.21875</v>
+      </c>
+      <c r="C217" s="5" t="n">
+        <v>29.39</v>
+      </c>
+      <c r="D217" s="5" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="E217" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F217" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G217" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H217" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I217" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J217" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K217" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="B218" s="4" t="n">
+        <v>44230.22916666666</v>
+      </c>
+      <c r="C218" s="5" t="n">
+        <v>29.41</v>
+      </c>
+      <c r="D218" s="5" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="E218" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F218" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G218" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H218" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I218" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J218" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K218" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="B219" s="4" t="n">
+        <v>44230.23958333334</v>
+      </c>
+      <c r="C219" s="5" t="n">
+        <v>29.44</v>
+      </c>
+      <c r="D219" s="5" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="E219" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F219" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G219" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H219" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I219" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J219" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K219" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="B220" s="4" t="n">
+        <v>44230.25</v>
+      </c>
+      <c r="C220" s="5" t="n">
+        <v>29.51</v>
+      </c>
+      <c r="D220" s="5" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="E220" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F220" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G220" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H220" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I220" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J220" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K220" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="B221" s="4" t="n">
+        <v>44230.26041666666</v>
+      </c>
+      <c r="C221" s="5" t="n">
+        <v>29.59</v>
+      </c>
+      <c r="D221" s="5" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="E221" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F221" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G221" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H221" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I221" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J221" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K221" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="B222" s="4" t="n">
+        <v>44230.27083333334</v>
+      </c>
+      <c r="C222" s="5" t="n">
+        <v>29.66</v>
+      </c>
+      <c r="D222" s="5" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="E222" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F222" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G222" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H222" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I222" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J222" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K222" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="B223" s="4" t="n">
+        <v>44230.28125</v>
+      </c>
+      <c r="C223" s="5" t="n">
+        <v>29.73</v>
+      </c>
+      <c r="D223" s="5" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="E223" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F223" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G223" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H223" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I223" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J223" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K223" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="B224" s="4" t="n">
+        <v>44230.29166666666</v>
+      </c>
+      <c r="C224" s="5" t="n">
+        <v>29.81</v>
+      </c>
+      <c r="D224" s="5" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="E224" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F224" s="6" t="n">
+        <v>1.033</v>
+      </c>
+      <c r="G224" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H224" s="6" t="n">
+        <v>1.033</v>
+      </c>
+      <c r="I224" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J224" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K224" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="B225" s="4" t="n">
+        <v>44230.30208333334</v>
+      </c>
+      <c r="C225" s="5" t="n">
+        <v>29.96</v>
+      </c>
+      <c r="D225" s="5" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="E225" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F225" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="G225" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H225" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="I225" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J225" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K225" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="B226" s="4" t="n">
+        <v>44230.3125</v>
+      </c>
+      <c r="C226" s="5" t="n">
+        <v>30.11</v>
+      </c>
+      <c r="D226" s="5" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="E226" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F226" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="G226" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H226" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="I226" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J226" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K226" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="B227" s="4" t="n">
+        <v>44230.32291666666</v>
+      </c>
+      <c r="C227" s="5" t="n">
+        <v>30.26</v>
+      </c>
+      <c r="D227" s="5" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="E227" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F227" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="G227" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H227" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="I227" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J227" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K227" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="B228" s="4" t="n">
+        <v>44230.33333333334</v>
+      </c>
+      <c r="C228" s="5" t="n">
+        <v>30.41</v>
+      </c>
+      <c r="D228" s="5" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="E228" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F228" s="6" t="n">
+        <v>2.067</v>
+      </c>
+      <c r="G228" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H228" s="6" t="n">
+        <v>2.067</v>
+      </c>
+      <c r="I228" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J228" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K228" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="B229" s="4" t="n">
+        <v>44230.34375</v>
+      </c>
+      <c r="C229" s="5" t="n">
+        <v>30.6</v>
+      </c>
+      <c r="D229" s="5" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="E229" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F229" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="G229" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H229" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="I229" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J229" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K229" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="B230" s="4" t="n">
+        <v>44230.35416666666</v>
+      </c>
+      <c r="C230" s="5" t="n">
+        <v>30.9</v>
+      </c>
+      <c r="D230" s="5" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="E230" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F230" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="G230" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H230" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="I230" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J230" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K230" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="B231" s="4" t="n">
+        <v>44230.36458333334</v>
+      </c>
+      <c r="C231" s="5" t="n">
+        <v>31.2</v>
+      </c>
+      <c r="D231" s="5" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="E231" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F231" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="G231" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H231" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="I231" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J231" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K231" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="B232" s="4" t="n">
+        <v>44230.375</v>
+      </c>
+      <c r="C232" s="5" t="n">
+        <v>31.5</v>
+      </c>
+      <c r="D232" s="5" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="E232" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F232" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="G232" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H232" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="I232" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J232" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K232" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="B233" s="4" t="n">
+        <v>44230.38541666666</v>
+      </c>
+      <c r="C233" s="5" t="n">
+        <v>31.76</v>
+      </c>
+      <c r="D233" s="5" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="E233" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F233" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="G233" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H233" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="I233" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J233" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K233" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="B234" s="4" t="n">
+        <v>44230.39583333334</v>
+      </c>
+      <c r="C234" s="5" t="n">
+        <v>32.03</v>
+      </c>
+      <c r="D234" s="5" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="E234" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F234" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="G234" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H234" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="I234" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J234" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K234" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="B235" s="4" t="n">
+        <v>44230.40625</v>
+      </c>
+      <c r="C235" s="5" t="n">
+        <v>32.29</v>
+      </c>
+      <c r="D235" s="5" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="E235" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F235" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="G235" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H235" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="I235" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J235" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K235" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="B236" s="4" t="n">
+        <v>44230.41666666666</v>
+      </c>
+      <c r="C236" s="5" t="n">
+        <v>32.55</v>
+      </c>
+      <c r="D236" s="5" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="E236" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F236" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="G236" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H236" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="I236" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J236" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K236" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="B237" s="4" t="n">
+        <v>44230.42708333334</v>
+      </c>
+      <c r="C237" s="5" t="n">
+        <v>32.74</v>
+      </c>
+      <c r="D237" s="5" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="E237" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F237" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="G237" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H237" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="I237" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J237" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K237" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="B238" s="4" t="n">
+        <v>44230.4375</v>
+      </c>
+      <c r="C238" s="5" t="n">
+        <v>32.93</v>
+      </c>
+      <c r="D238" s="5" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="E238" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F238" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="G238" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H238" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="I238" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J238" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K238" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="B239" s="4" t="n">
+        <v>44230.44791666666</v>
+      </c>
+      <c r="C239" s="5" t="n">
+        <v>33.12</v>
+      </c>
+      <c r="D239" s="5" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="E239" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F239" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="G239" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H239" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="I239" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J239" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K239" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="B240" s="4" t="n">
+        <v>44230.45833333334</v>
+      </c>
+      <c r="C240" s="5" t="n">
+        <v>33.31</v>
+      </c>
+      <c r="D240" s="5" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="E240" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F240" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="G240" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H240" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="I240" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J240" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K240" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="B241" s="4" t="n">
+        <v>44230.46875</v>
+      </c>
+      <c r="C241" s="5" t="n">
+        <v>33.5</v>
+      </c>
+      <c r="D241" s="5" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="E241" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F241" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="G241" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H241" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="I241" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J241" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K241" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="B242" s="4" t="n">
+        <v>44230.47916666666</v>
+      </c>
+      <c r="C242" s="5" t="n">
+        <v>33.69</v>
+      </c>
+      <c r="D242" s="5" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="E242" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F242" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="G242" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H242" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="I242" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J242" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K242" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="B243" s="4" t="n">
+        <v>44230.48958333334</v>
+      </c>
+      <c r="C243" s="5" t="n">
+        <v>33.88</v>
+      </c>
+      <c r="D243" s="5" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="E243" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F243" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="G243" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H243" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="I243" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J243" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K243" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="B244" s="4" t="n">
+        <v>44230.5</v>
+      </c>
+      <c r="C244" s="5" t="n">
+        <v>34.02</v>
+      </c>
+      <c r="D244" s="5" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="E244" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F244" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="G244" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H244" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="I244" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J244" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K244" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="B245" s="4" t="n">
+        <v>44230.51041666666</v>
+      </c>
+      <c r="C245" s="5" t="n">
+        <v>34.16</v>
+      </c>
+      <c r="D245" s="5" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="E245" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F245" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="G245" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H245" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="I245" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J245" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K245" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="B246" s="4" t="n">
+        <v>44230.52083333334</v>
+      </c>
+      <c r="C246" s="5" t="n">
+        <v>34.3</v>
+      </c>
+      <c r="D246" s="5" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="E246" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F246" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="G246" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H246" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="I246" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J246" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K246" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="B247" s="4" t="n">
+        <v>44230.53125</v>
+      </c>
+      <c r="C247" s="5" t="n">
+        <v>34.44</v>
+      </c>
+      <c r="D247" s="5" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="E247" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F247" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="G247" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H247" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="I247" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J247" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K247" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="B248" s="4" t="n">
+        <v>44230.54166666666</v>
+      </c>
+      <c r="C248" s="5" t="n">
+        <v>34.58</v>
+      </c>
+      <c r="D248" s="5" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="E248" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F248" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="G248" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H248" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="I248" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J248" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K248" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="B249" s="4" t="n">
+        <v>44230.55208333334</v>
+      </c>
+      <c r="C249" s="5" t="n">
+        <v>34.77</v>
+      </c>
+      <c r="D249" s="5" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="E249" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F249" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="G249" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H249" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="I249" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J249" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K249" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="B250" s="4" t="n">
+        <v>44230.5625</v>
+      </c>
+      <c r="C250" s="5" t="n">
+        <v>34.96</v>
+      </c>
+      <c r="D250" s="5" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="E250" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F250" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="G250" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H250" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="I250" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J250" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K250" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="B251" s="4" t="n">
+        <v>44230.57291666666</v>
+      </c>
+      <c r="C251" s="5" t="n">
+        <v>35.15</v>
+      </c>
+      <c r="D251" s="5" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="E251" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F251" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="G251" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H251" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="I251" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J251" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K251" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="B252" s="4" t="n">
+        <v>44230.58333333334</v>
+      </c>
+      <c r="C252" s="5" t="n">
+        <v>35.34</v>
+      </c>
+      <c r="D252" s="5" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="E252" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F252" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="G252" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H252" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="I252" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J252" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K252" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="B253" s="4" t="n">
+        <v>44230.59375</v>
+      </c>
+      <c r="C253" s="5" t="n">
+        <v>35.5</v>
+      </c>
+      <c r="D253" s="5" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="E253" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F253" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="G253" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H253" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="I253" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J253" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K253" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="B254" s="4" t="n">
+        <v>44230.60416666666</v>
+      </c>
+      <c r="C254" s="5" t="n">
+        <v>35.64</v>
+      </c>
+      <c r="D254" s="5" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="E254" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F254" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="G254" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H254" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="I254" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J254" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K254" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="B255" s="4" t="n">
+        <v>44230.61458333334</v>
+      </c>
+      <c r="C255" s="5" t="n">
+        <v>35.78</v>
+      </c>
+      <c r="D255" s="5" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="E255" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F255" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="G255" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H255" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="I255" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J255" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K255" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="B256" s="4" t="n">
+        <v>44230.625</v>
+      </c>
+      <c r="C256" s="5" t="n">
+        <v>35.92</v>
+      </c>
+      <c r="D256" s="5" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="E256" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F256" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="G256" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H256" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="I256" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J256" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K256" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="B257" s="4" t="n">
+        <v>44230.63541666666</v>
+      </c>
+      <c r="C257" s="5" t="n">
+        <v>36.09</v>
+      </c>
+      <c r="D257" s="5" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="E257" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F257" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="G257" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H257" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="I257" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J257" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K257" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="B258" s="4" t="n">
+        <v>44230.64583333334</v>
+      </c>
+      <c r="C258" s="5" t="n">
+        <v>36.26</v>
+      </c>
+      <c r="D258" s="5" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="E258" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F258" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="G258" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H258" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="I258" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J258" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K258" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="B259" s="4" t="n">
+        <v>44230.65625</v>
+      </c>
+      <c r="C259" s="5" t="n">
+        <v>36.43</v>
+      </c>
+      <c r="D259" s="5" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="E259" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F259" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="G259" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H259" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="I259" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J259" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K259" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="B260" s="4" t="n">
+        <v>44230.66666666666</v>
+      </c>
+      <c r="C260" s="5" t="n">
+        <v>36.68</v>
+      </c>
+      <c r="D260" s="5" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="E260" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F260" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="G260" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H260" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="I260" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J260" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K260" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="B261" s="4" t="n">
+        <v>44230.67708333334</v>
+      </c>
+      <c r="C261" s="5" t="n">
+        <v>36.98</v>
+      </c>
+      <c r="D261" s="5" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="E261" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F261" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="G261" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H261" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="I261" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J261" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K261" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="B262" s="4" t="n">
+        <v>44230.6875</v>
+      </c>
+      <c r="C262" s="5" t="n">
+        <v>37.28</v>
+      </c>
+      <c r="D262" s="5" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="E262" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F262" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="G262" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H262" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="I262" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J262" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K262" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="B263" s="4" t="n">
+        <v>44230.69791666666</v>
+      </c>
+      <c r="C263" s="5" t="n">
+        <v>37.58</v>
+      </c>
+      <c r="D263" s="5" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="E263" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F263" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="G263" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H263" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="I263" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J263" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K263" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="B264" s="4" t="n">
+        <v>44230.70833333334</v>
+      </c>
+      <c r="C264" s="5" t="n">
+        <v>37.88</v>
+      </c>
+      <c r="D264" s="5" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="E264" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F264" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="G264" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H264" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="I264" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J264" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K264" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="B265" s="4" t="n">
+        <v>44230.71875</v>
+      </c>
+      <c r="C265" s="5" t="n">
+        <v>38.18</v>
+      </c>
+      <c r="D265" s="5" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="E265" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F265" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="G265" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H265" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="I265" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J265" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K265" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="B266" s="4" t="n">
+        <v>44230.72916666666</v>
+      </c>
+      <c r="C266" s="5" t="n">
+        <v>38.48</v>
+      </c>
+      <c r="D266" s="5" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="E266" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F266" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="G266" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H266" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="I266" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J266" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K266" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="B267" s="4" t="n">
+        <v>44230.73958333334</v>
+      </c>
+      <c r="C267" s="5" t="n">
+        <v>38.78</v>
+      </c>
+      <c r="D267" s="5" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="E267" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F267" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="G267" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H267" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="I267" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J267" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K267" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="B268" s="4" t="n">
+        <v>44230.75</v>
+      </c>
+      <c r="C268" s="5" t="n">
+        <v>39.08</v>
+      </c>
+      <c r="D268" s="5" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="E268" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F268" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="G268" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H268" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="I268" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J268" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K268" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="B269" s="4" t="n">
+        <v>44230.76041666666</v>
+      </c>
+      <c r="C269" s="5" t="n">
+        <v>39.38</v>
+      </c>
+      <c r="D269" s="5" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="E269" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F269" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="G269" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H269" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="I269" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J269" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K269" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="B270" s="4" t="n">
+        <v>44230.77083333334</v>
+      </c>
+      <c r="C270" s="5" t="n">
+        <v>39.68</v>
+      </c>
+      <c r="D270" s="5" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="E270" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F270" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="G270" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H270" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="I270" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J270" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K270" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="B271" s="4" t="n">
+        <v>44230.78125</v>
+      </c>
+      <c r="C271" s="5" t="n">
+        <v>39.98</v>
+      </c>
+      <c r="D271" s="5" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="E271" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F271" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="G271" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H271" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="I271" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J271" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K271" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="B272" s="4" t="n">
+        <v>44230.79166666666</v>
+      </c>
+      <c r="C272" s="5" t="n">
+        <v>40.28</v>
+      </c>
+      <c r="D272" s="5" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="E272" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F272" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="G272" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H272" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="I272" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J272" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K272" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="B273" s="4" t="n">
+        <v>44230.80208333334</v>
+      </c>
+      <c r="C273" s="5" t="n">
+        <v>40.58</v>
+      </c>
+      <c r="D273" s="5" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="E273" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F273" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="G273" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H273" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="I273" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J273" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K273" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="B274" s="4" t="n">
+        <v>44230.8125</v>
+      </c>
+      <c r="C274" s="5" t="n">
+        <v>40.88</v>
+      </c>
+      <c r="D274" s="5" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="E274" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F274" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="G274" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H274" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="I274" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J274" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K274" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="B275" s="4" t="n">
+        <v>44230.82291666666</v>
+      </c>
+      <c r="C275" s="5" t="n">
+        <v>41.18</v>
+      </c>
+      <c r="D275" s="5" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="E275" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F275" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="G275" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H275" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="I275" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J275" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K275" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="B276" s="4" t="n">
+        <v>44230.83333333334</v>
+      </c>
+      <c r="C276" s="5" t="n">
+        <v>41.48</v>
+      </c>
+      <c r="D276" s="5" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="E276" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F276" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="G276" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H276" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="I276" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J276" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K276" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="B277" s="4" t="n">
+        <v>44230.84375</v>
+      </c>
+      <c r="C277" s="5" t="n">
+        <v>41.78</v>
+      </c>
+      <c r="D277" s="5" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="E277" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F277" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="G277" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H277" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="I277" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J277" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K277" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="B278" s="4" t="n">
+        <v>44230.85416666666</v>
+      </c>
+      <c r="C278" s="5" t="n">
+        <v>42.08</v>
+      </c>
+      <c r="D278" s="5" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="E278" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F278" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="G278" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H278" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="I278" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J278" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K278" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="B279" s="4" t="n">
+        <v>44230.86458333334</v>
+      </c>
+      <c r="C279" s="5" t="n">
+        <v>42.38</v>
+      </c>
+      <c r="D279" s="5" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="E279" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F279" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="G279" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H279" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="I279" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J279" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K279" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="B280" s="4" t="n">
+        <v>44230.875</v>
+      </c>
+      <c r="C280" s="5" t="n">
+        <v>42.68</v>
+      </c>
+      <c r="D280" s="5" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="E280" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F280" s="6" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="G280" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H280" s="6" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="I280" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J280" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K280" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="B281" s="4" t="n">
+        <v>44230.88541666666</v>
+      </c>
+      <c r="C281" s="5" t="n">
+        <v>42.75</v>
+      </c>
+      <c r="D281" s="5" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="E281" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F281" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G281" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H281" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I281" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J281" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K281" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="B282" s="4" t="n">
+        <v>44230.89583333334</v>
+      </c>
+      <c r="C282" s="5" t="n">
+        <v>42.83</v>
+      </c>
+      <c r="D282" s="5" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="E282" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F282" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G282" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H282" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I282" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J282" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K282" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="B283" s="4" t="n">
+        <v>44230.90625</v>
+      </c>
+      <c r="C283" s="5" t="n">
+        <v>42.9</v>
+      </c>
+      <c r="D283" s="5" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="E283" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F283" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G283" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H283" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I283" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J283" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K283" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="B284" s="4" t="n">
+        <v>44230.91666666666</v>
+      </c>
+      <c r="C284" s="5" t="n">
+        <v>42.93</v>
+      </c>
+      <c r="D284" s="5" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="E284" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F284" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G284" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H284" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I284" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J284" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K284" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="B285" s="4" t="n">
+        <v>44230.92708333334</v>
+      </c>
+      <c r="C285" s="5" t="n">
+        <v>42.95</v>
+      </c>
+      <c r="D285" s="5" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="E285" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F285" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G285" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H285" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I285" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J285" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K285" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="B286" s="4" t="n">
+        <v>44230.9375</v>
+      </c>
+      <c r="C286" s="5" t="n">
+        <v>42.98</v>
+      </c>
+      <c r="D286" s="5" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="E286" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F286" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G286" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H286" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I286" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J286" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K286" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="B287" s="4" t="n">
+        <v>44230.94791666666</v>
+      </c>
+      <c r="C287" s="5" t="n">
+        <v>43</v>
+      </c>
+      <c r="D287" s="5" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="E287" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F287" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G287" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H287" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I287" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J287" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K287" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="B288" s="4" t="n">
+        <v>44230.95833333334</v>
+      </c>
+      <c r="C288" s="5" t="n">
+        <v>43.03</v>
+      </c>
+      <c r="D288" s="5" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="E288" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F288" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G288" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H288" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I288" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J288" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K288" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="B289" s="4" t="n">
+        <v>44230.96875</v>
+      </c>
+      <c r="C289" s="5" t="n">
+        <v>43.05</v>
+      </c>
+      <c r="D289" s="5" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="E289" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F289" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G289" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H289" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I289" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J289" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K289" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="B290" s="4" t="n">
+        <v>44230.97916666666</v>
+      </c>
+      <c r="C290" s="5" t="n">
+        <v>43.08</v>
+      </c>
+      <c r="D290" s="5" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="E290" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F290" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G290" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H290" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I290" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J290" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K290" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="B291" s="4" t="n">
+        <v>44230.98958333334</v>
+      </c>
+      <c r="C291" s="5" t="n">
+        <v>43.1</v>
+      </c>
+      <c r="D291" s="5" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="E291" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F291" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G291" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H291" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I291" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J291" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K291" s="6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5303,7 +9754,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B3:M152"/>
+  <dimension ref="B3:M291"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10127,8 +14578,12 @@
       <c r="B152" s="4" t="n">
         <v>44229.54166666666</v>
       </c>
-      <c r="C152" s="6" t="n"/>
-      <c r="D152" s="6" t="n"/>
+      <c r="C152" s="5" t="n">
+        <v>20.32</v>
+      </c>
+      <c r="D152" s="5" t="n">
+        <v>0.13</v>
+      </c>
       <c r="E152" s="6" t="n">
         <v>1</v>
       </c>
@@ -10148,6 +14603,4454 @@
         <v>0</v>
       </c>
       <c r="K152" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="B153" s="4" t="n">
+        <v>44229.55208333334</v>
+      </c>
+      <c r="C153" s="5" t="n">
+        <v>20.51</v>
+      </c>
+      <c r="D153" s="5" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="E153" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="F153" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G153" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H153" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I153" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J153" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K153" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="B154" s="4" t="n">
+        <v>44229.5625</v>
+      </c>
+      <c r="C154" s="5" t="n">
+        <v>20.69</v>
+      </c>
+      <c r="D154" s="5" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="E154" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="F154" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G154" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H154" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I154" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J154" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K154" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="B155" s="4" t="n">
+        <v>44229.57291666666</v>
+      </c>
+      <c r="C155" s="5" t="n">
+        <v>20.88</v>
+      </c>
+      <c r="D155" s="5" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="E155" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="F155" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G155" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H155" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I155" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J155" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K155" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="B156" s="4" t="n">
+        <v>44229.58333333334</v>
+      </c>
+      <c r="C156" s="5" t="n">
+        <v>21.07</v>
+      </c>
+      <c r="D156" s="5" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="E156" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="F156" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G156" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H156" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I156" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J156" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K156" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="B157" s="4" t="n">
+        <v>44229.59375</v>
+      </c>
+      <c r="C157" s="5" t="n">
+        <v>21.24</v>
+      </c>
+      <c r="D157" s="5" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="E157" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="F157" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G157" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H157" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I157" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J157" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K157" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="B158" s="4" t="n">
+        <v>44229.60416666666</v>
+      </c>
+      <c r="C158" s="5" t="n">
+        <v>21.38</v>
+      </c>
+      <c r="D158" s="5" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="E158" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="F158" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G158" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H158" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I158" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J158" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K158" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="B159" s="4" t="n">
+        <v>44229.61458333334</v>
+      </c>
+      <c r="C159" s="5" t="n">
+        <v>21.52</v>
+      </c>
+      <c r="D159" s="5" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="E159" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="F159" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G159" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H159" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I159" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J159" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K159" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="B160" s="4" t="n">
+        <v>44229.625</v>
+      </c>
+      <c r="C160" s="5" t="n">
+        <v>21.66</v>
+      </c>
+      <c r="D160" s="5" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="E160" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="F160" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G160" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H160" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I160" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J160" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K160" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="B161" s="4" t="n">
+        <v>44229.63541666666</v>
+      </c>
+      <c r="C161" s="5" t="n">
+        <v>21.83</v>
+      </c>
+      <c r="D161" s="5" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="E161" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="F161" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G161" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H161" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I161" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J161" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K161" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="B162" s="4" t="n">
+        <v>44229.64583333334</v>
+      </c>
+      <c r="C162" s="5" t="n">
+        <v>22</v>
+      </c>
+      <c r="D162" s="5" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="E162" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="F162" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G162" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H162" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I162" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J162" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K162" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="B163" s="4" t="n">
+        <v>44229.65625</v>
+      </c>
+      <c r="C163" s="5" t="n">
+        <v>22.17</v>
+      </c>
+      <c r="D163" s="5" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="E163" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="F163" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G163" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H163" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I163" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J163" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K163" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="B164" s="4" t="n">
+        <v>44229.66666666666</v>
+      </c>
+      <c r="C164" s="5" t="n">
+        <v>22.41</v>
+      </c>
+      <c r="D164" s="5" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="E164" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="F164" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G164" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H164" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I164" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J164" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K164" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="B165" s="4" t="n">
+        <v>44229.67708333334</v>
+      </c>
+      <c r="C165" s="5" t="n">
+        <v>22.71</v>
+      </c>
+      <c r="D165" s="5" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="E165" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="F165" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G165" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H165" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I165" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J165" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K165" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="B166" s="4" t="n">
+        <v>44229.6875</v>
+      </c>
+      <c r="C166" s="5" t="n">
+        <v>23.01</v>
+      </c>
+      <c r="D166" s="5" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="E166" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="F166" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G166" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H166" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I166" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J166" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K166" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="B167" s="4" t="n">
+        <v>44229.69791666666</v>
+      </c>
+      <c r="C167" s="5" t="n">
+        <v>23.31</v>
+      </c>
+      <c r="D167" s="5" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="E167" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="F167" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G167" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H167" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I167" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J167" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K167" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="B168" s="4" t="n">
+        <v>44229.70833333334</v>
+      </c>
+      <c r="C168" s="5" t="n">
+        <v>23.61</v>
+      </c>
+      <c r="D168" s="5" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="E168" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="F168" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G168" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H168" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I168" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J168" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K168" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="B169" s="4" t="n">
+        <v>44229.71875</v>
+      </c>
+      <c r="C169" s="5" t="n">
+        <v>23.91</v>
+      </c>
+      <c r="D169" s="5" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="E169" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="F169" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G169" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H169" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I169" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J169" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K169" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="B170" s="4" t="n">
+        <v>44229.72916666666</v>
+      </c>
+      <c r="C170" s="5" t="n">
+        <v>24.21</v>
+      </c>
+      <c r="D170" s="5" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="E170" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="F170" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G170" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H170" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I170" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J170" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K170" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="B171" s="4" t="n">
+        <v>44229.73958333334</v>
+      </c>
+      <c r="C171" s="5" t="n">
+        <v>24.51</v>
+      </c>
+      <c r="D171" s="5" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="E171" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="F171" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G171" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H171" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I171" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J171" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K171" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="B172" s="4" t="n">
+        <v>44229.75</v>
+      </c>
+      <c r="C172" s="5" t="n">
+        <v>24.81</v>
+      </c>
+      <c r="D172" s="5" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="E172" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="F172" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G172" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H172" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I172" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J172" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K172" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="B173" s="4" t="n">
+        <v>44229.76041666666</v>
+      </c>
+      <c r="C173" s="5" t="n">
+        <v>25.11</v>
+      </c>
+      <c r="D173" s="5" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="E173" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="F173" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G173" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H173" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I173" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J173" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K173" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="B174" s="4" t="n">
+        <v>44229.77083333334</v>
+      </c>
+      <c r="C174" s="5" t="n">
+        <v>25.41</v>
+      </c>
+      <c r="D174" s="5" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="E174" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="F174" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G174" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H174" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I174" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J174" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K174" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="B175" s="4" t="n">
+        <v>44229.78125</v>
+      </c>
+      <c r="C175" s="5" t="n">
+        <v>25.71</v>
+      </c>
+      <c r="D175" s="5" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="E175" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="F175" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G175" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H175" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I175" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J175" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K175" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="B176" s="4" t="n">
+        <v>44229.79166666666</v>
+      </c>
+      <c r="C176" s="5" t="n">
+        <v>26.01</v>
+      </c>
+      <c r="D176" s="5" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="E176" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="F176" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G176" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H176" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I176" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J176" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K176" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="B177" s="4" t="n">
+        <v>44229.80208333334</v>
+      </c>
+      <c r="C177" s="5" t="n">
+        <v>26.31</v>
+      </c>
+      <c r="D177" s="5" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="E177" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="F177" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G177" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H177" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I177" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J177" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K177" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="B178" s="4" t="n">
+        <v>44229.8125</v>
+      </c>
+      <c r="C178" s="5" t="n">
+        <v>26.61</v>
+      </c>
+      <c r="D178" s="5" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="E178" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="F178" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G178" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H178" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I178" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J178" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K178" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="B179" s="4" t="n">
+        <v>44229.82291666666</v>
+      </c>
+      <c r="C179" s="5" t="n">
+        <v>26.91</v>
+      </c>
+      <c r="D179" s="5" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="E179" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="F179" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G179" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H179" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I179" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J179" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K179" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="B180" s="4" t="n">
+        <v>44229.83333333334</v>
+      </c>
+      <c r="C180" s="5" t="n">
+        <v>27.21</v>
+      </c>
+      <c r="D180" s="5" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="E180" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="F180" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G180" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H180" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I180" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J180" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K180" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="B181" s="4" t="n">
+        <v>44229.84375</v>
+      </c>
+      <c r="C181" s="5" t="n">
+        <v>27.51</v>
+      </c>
+      <c r="D181" s="5" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="E181" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="F181" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G181" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H181" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I181" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J181" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K181" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="B182" s="4" t="n">
+        <v>44229.85416666666</v>
+      </c>
+      <c r="C182" s="5" t="n">
+        <v>27.81</v>
+      </c>
+      <c r="D182" s="5" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="E182" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="F182" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G182" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H182" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I182" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J182" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K182" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="B183" s="4" t="n">
+        <v>44229.86458333334</v>
+      </c>
+      <c r="C183" s="5" t="n">
+        <v>28.11</v>
+      </c>
+      <c r="D183" s="5" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="E183" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="F183" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G183" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H183" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I183" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J183" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K183" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="B184" s="4" t="n">
+        <v>44229.875</v>
+      </c>
+      <c r="C184" s="5" t="n">
+        <v>28.41</v>
+      </c>
+      <c r="D184" s="5" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="E184" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="F184" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G184" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H184" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I184" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J184" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K184" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="B185" s="4" t="n">
+        <v>44229.88541666666</v>
+      </c>
+      <c r="C185" s="5" t="n">
+        <v>28.49</v>
+      </c>
+      <c r="D185" s="5" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="E185" s="6" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="F185" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G185" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H185" s="6" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="I185" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J185" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K185" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="B186" s="4" t="n">
+        <v>44229.89583333334</v>
+      </c>
+      <c r="C186" s="5" t="n">
+        <v>28.56</v>
+      </c>
+      <c r="D186" s="5" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="E186" s="6" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="F186" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G186" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H186" s="6" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="I186" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J186" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K186" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="B187" s="4" t="n">
+        <v>44229.90625</v>
+      </c>
+      <c r="C187" s="5" t="n">
+        <v>28.64</v>
+      </c>
+      <c r="D187" s="5" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="E187" s="6" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="F187" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G187" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H187" s="6" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="I187" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J187" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K187" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="B188" s="4" t="n">
+        <v>44229.91666666666</v>
+      </c>
+      <c r="C188" s="5" t="n">
+        <v>28.66</v>
+      </c>
+      <c r="D188" s="5" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="E188" s="6" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="F188" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G188" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H188" s="6" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="I188" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J188" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K188" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="B189" s="4" t="n">
+        <v>44229.92708333334</v>
+      </c>
+      <c r="C189" s="5" t="n">
+        <v>28.69</v>
+      </c>
+      <c r="D189" s="5" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="E189" s="6" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="F189" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G189" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H189" s="6" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="I189" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J189" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K189" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="B190" s="4" t="n">
+        <v>44229.9375</v>
+      </c>
+      <c r="C190" s="5" t="n">
+        <v>28.71</v>
+      </c>
+      <c r="D190" s="5" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="E190" s="6" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="F190" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G190" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H190" s="6" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="I190" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J190" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K190" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="B191" s="4" t="n">
+        <v>44229.94791666666</v>
+      </c>
+      <c r="C191" s="5" t="n">
+        <v>28.74</v>
+      </c>
+      <c r="D191" s="5" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="E191" s="6" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="F191" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G191" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H191" s="6" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="I191" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J191" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K191" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="B192" s="4" t="n">
+        <v>44229.95833333334</v>
+      </c>
+      <c r="C192" s="5" t="n">
+        <v>28.76</v>
+      </c>
+      <c r="D192" s="5" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="E192" s="6" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="F192" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G192" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H192" s="6" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="I192" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J192" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K192" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="B193" s="4" t="n">
+        <v>44229.96875</v>
+      </c>
+      <c r="C193" s="5" t="n">
+        <v>28.79</v>
+      </c>
+      <c r="D193" s="5" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="E193" s="6" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="F193" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G193" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H193" s="6" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="I193" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J193" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K193" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="B194" s="4" t="n">
+        <v>44229.97916666666</v>
+      </c>
+      <c r="C194" s="5" t="n">
+        <v>28.81</v>
+      </c>
+      <c r="D194" s="5" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="E194" s="6" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="F194" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G194" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H194" s="6" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="I194" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J194" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K194" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="B195" s="4" t="n">
+        <v>44229.98958333334</v>
+      </c>
+      <c r="C195" s="5" t="n">
+        <v>28.84</v>
+      </c>
+      <c r="D195" s="5" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="E195" s="6" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="F195" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G195" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H195" s="6" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="I195" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J195" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K195" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="B196" s="4" t="n">
+        <v>44230</v>
+      </c>
+      <c r="C196" s="5" t="n">
+        <v>28.86</v>
+      </c>
+      <c r="D196" s="5" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="E196" s="6" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="F196" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G196" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H196" s="6" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="I196" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J196" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K196" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="B197" s="4" t="n">
+        <v>44230.01041666666</v>
+      </c>
+      <c r="C197" s="5" t="n">
+        <v>28.89</v>
+      </c>
+      <c r="D197" s="5" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="E197" s="6" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="F197" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G197" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H197" s="6" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="I197" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J197" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K197" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="B198" s="4" t="n">
+        <v>44230.02083333334</v>
+      </c>
+      <c r="C198" s="5" t="n">
+        <v>28.91</v>
+      </c>
+      <c r="D198" s="5" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="E198" s="6" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="F198" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G198" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H198" s="6" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="I198" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J198" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K198" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="B199" s="4" t="n">
+        <v>44230.03125</v>
+      </c>
+      <c r="C199" s="5" t="n">
+        <v>28.94</v>
+      </c>
+      <c r="D199" s="5" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="E199" s="6" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="F199" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G199" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H199" s="6" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="I199" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J199" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K199" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="B200" s="4" t="n">
+        <v>44230.04166666666</v>
+      </c>
+      <c r="C200" s="5" t="n">
+        <v>28.96</v>
+      </c>
+      <c r="D200" s="5" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="E200" s="6" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="F200" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G200" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H200" s="6" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="I200" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J200" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K200" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="B201" s="4" t="n">
+        <v>44230.05208333334</v>
+      </c>
+      <c r="C201" s="5" t="n">
+        <v>28.99</v>
+      </c>
+      <c r="D201" s="5" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="E201" s="6" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="F201" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G201" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H201" s="6" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="I201" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J201" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K201" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="B202" s="4" t="n">
+        <v>44230.0625</v>
+      </c>
+      <c r="C202" s="5" t="n">
+        <v>29.01</v>
+      </c>
+      <c r="D202" s="5" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="E202" s="6" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="F202" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G202" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H202" s="6" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="I202" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J202" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K202" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="B203" s="4" t="n">
+        <v>44230.07291666666</v>
+      </c>
+      <c r="C203" s="5" t="n">
+        <v>29.04</v>
+      </c>
+      <c r="D203" s="5" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="E203" s="6" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="F203" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G203" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H203" s="6" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="I203" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J203" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K203" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="B204" s="4" t="n">
+        <v>44230.08333333334</v>
+      </c>
+      <c r="C204" s="5" t="n">
+        <v>29.06</v>
+      </c>
+      <c r="D204" s="5" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="E204" s="6" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="F204" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G204" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H204" s="6" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="I204" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J204" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K204" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="B205" s="4" t="n">
+        <v>44230.09375</v>
+      </c>
+      <c r="C205" s="5" t="n">
+        <v>29.09</v>
+      </c>
+      <c r="D205" s="5" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="E205" s="6" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="F205" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G205" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H205" s="6" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="I205" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J205" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K205" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="B206" s="4" t="n">
+        <v>44230.10416666666</v>
+      </c>
+      <c r="C206" s="5" t="n">
+        <v>29.11</v>
+      </c>
+      <c r="D206" s="5" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="E206" s="6" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="F206" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G206" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H206" s="6" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="I206" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J206" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K206" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="B207" s="4" t="n">
+        <v>44230.11458333334</v>
+      </c>
+      <c r="C207" s="5" t="n">
+        <v>29.14</v>
+      </c>
+      <c r="D207" s="5" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="E207" s="6" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="F207" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G207" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H207" s="6" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="I207" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J207" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K207" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="B208" s="4" t="n">
+        <v>44230.125</v>
+      </c>
+      <c r="C208" s="5" t="n">
+        <v>29.16</v>
+      </c>
+      <c r="D208" s="5" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="E208" s="6" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="F208" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G208" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H208" s="6" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="I208" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J208" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K208" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="B209" s="4" t="n">
+        <v>44230.13541666666</v>
+      </c>
+      <c r="C209" s="5" t="n">
+        <v>29.19</v>
+      </c>
+      <c r="D209" s="5" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="E209" s="6" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="F209" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G209" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H209" s="6" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="I209" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J209" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K209" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="B210" s="4" t="n">
+        <v>44230.14583333334</v>
+      </c>
+      <c r="C210" s="5" t="n">
+        <v>29.21</v>
+      </c>
+      <c r="D210" s="5" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="E210" s="6" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="F210" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G210" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H210" s="6" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="I210" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J210" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K210" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="B211" s="4" t="n">
+        <v>44230.15625</v>
+      </c>
+      <c r="C211" s="5" t="n">
+        <v>29.24</v>
+      </c>
+      <c r="D211" s="5" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="E211" s="6" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="F211" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G211" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H211" s="6" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="I211" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J211" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K211" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="B212" s="4" t="n">
+        <v>44230.16666666666</v>
+      </c>
+      <c r="C212" s="5" t="n">
+        <v>29.26</v>
+      </c>
+      <c r="D212" s="5" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="E212" s="6" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="F212" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G212" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H212" s="6" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="I212" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J212" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K212" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="B213" s="4" t="n">
+        <v>44230.17708333334</v>
+      </c>
+      <c r="C213" s="5" t="n">
+        <v>29.29</v>
+      </c>
+      <c r="D213" s="5" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="E213" s="6" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="F213" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G213" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H213" s="6" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="I213" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J213" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K213" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="B214" s="4" t="n">
+        <v>44230.1875</v>
+      </c>
+      <c r="C214" s="5" t="n">
+        <v>29.31</v>
+      </c>
+      <c r="D214" s="5" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="E214" s="6" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="F214" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G214" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H214" s="6" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="I214" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J214" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K214" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="B215" s="4" t="n">
+        <v>44230.19791666666</v>
+      </c>
+      <c r="C215" s="5" t="n">
+        <v>29.34</v>
+      </c>
+      <c r="D215" s="5" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="E215" s="6" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="F215" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G215" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H215" s="6" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="I215" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J215" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K215" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="B216" s="4" t="n">
+        <v>44230.20833333334</v>
+      </c>
+      <c r="C216" s="5" t="n">
+        <v>29.36</v>
+      </c>
+      <c r="D216" s="5" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="E216" s="6" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="F216" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G216" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H216" s="6" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="I216" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J216" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K216" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="B217" s="4" t="n">
+        <v>44230.21875</v>
+      </c>
+      <c r="C217" s="5" t="n">
+        <v>29.39</v>
+      </c>
+      <c r="D217" s="5" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="E217" s="6" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="F217" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G217" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H217" s="6" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="I217" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J217" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K217" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="B218" s="4" t="n">
+        <v>44230.22916666666</v>
+      </c>
+      <c r="C218" s="5" t="n">
+        <v>29.41</v>
+      </c>
+      <c r="D218" s="5" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="E218" s="6" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="F218" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G218" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H218" s="6" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="I218" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J218" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K218" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="B219" s="4" t="n">
+        <v>44230.23958333334</v>
+      </c>
+      <c r="C219" s="5" t="n">
+        <v>29.44</v>
+      </c>
+      <c r="D219" s="5" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="E219" s="6" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="F219" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G219" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H219" s="6" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="I219" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J219" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K219" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="B220" s="4" t="n">
+        <v>44230.25</v>
+      </c>
+      <c r="C220" s="5" t="n">
+        <v>29.51</v>
+      </c>
+      <c r="D220" s="5" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="E220" s="6" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="F220" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G220" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H220" s="6" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="I220" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J220" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K220" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="B221" s="4" t="n">
+        <v>44230.26041666666</v>
+      </c>
+      <c r="C221" s="5" t="n">
+        <v>29.59</v>
+      </c>
+      <c r="D221" s="5" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="E221" s="6" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="F221" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G221" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H221" s="6" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="I221" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J221" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K221" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="B222" s="4" t="n">
+        <v>44230.27083333334</v>
+      </c>
+      <c r="C222" s="5" t="n">
+        <v>29.66</v>
+      </c>
+      <c r="D222" s="5" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="E222" s="6" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="F222" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G222" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H222" s="6" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="I222" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J222" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K222" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="B223" s="4" t="n">
+        <v>44230.28125</v>
+      </c>
+      <c r="C223" s="5" t="n">
+        <v>29.73</v>
+      </c>
+      <c r="D223" s="5" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="E223" s="6" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="F223" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G223" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H223" s="6" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="I223" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J223" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K223" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="B224" s="4" t="n">
+        <v>44230.29166666666</v>
+      </c>
+      <c r="C224" s="5" t="n">
+        <v>29.81</v>
+      </c>
+      <c r="D224" s="5" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="E224" s="6" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="F224" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G224" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H224" s="6" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="I224" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J224" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K224" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="B225" s="4" t="n">
+        <v>44230.30208333334</v>
+      </c>
+      <c r="C225" s="5" t="n">
+        <v>29.96</v>
+      </c>
+      <c r="D225" s="5" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="E225" s="6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F225" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G225" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H225" s="6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I225" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J225" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K225" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="B226" s="4" t="n">
+        <v>44230.3125</v>
+      </c>
+      <c r="C226" s="5" t="n">
+        <v>30.11</v>
+      </c>
+      <c r="D226" s="5" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="E226" s="6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F226" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G226" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H226" s="6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I226" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J226" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K226" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="B227" s="4" t="n">
+        <v>44230.32291666666</v>
+      </c>
+      <c r="C227" s="5" t="n">
+        <v>30.26</v>
+      </c>
+      <c r="D227" s="5" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="E227" s="6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F227" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G227" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H227" s="6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I227" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J227" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K227" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="B228" s="4" t="n">
+        <v>44230.33333333334</v>
+      </c>
+      <c r="C228" s="5" t="n">
+        <v>30.41</v>
+      </c>
+      <c r="D228" s="5" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="E228" s="6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F228" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G228" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H228" s="6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I228" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J228" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K228" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="B229" s="4" t="n">
+        <v>44230.34375</v>
+      </c>
+      <c r="C229" s="5" t="n">
+        <v>30.6</v>
+      </c>
+      <c r="D229" s="5" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="E229" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="F229" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G229" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H229" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I229" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J229" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K229" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="B230" s="4" t="n">
+        <v>44230.35416666666</v>
+      </c>
+      <c r="C230" s="5" t="n">
+        <v>30.9</v>
+      </c>
+      <c r="D230" s="5" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="E230" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="F230" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G230" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H230" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I230" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J230" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K230" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="B231" s="4" t="n">
+        <v>44230.36458333334</v>
+      </c>
+      <c r="C231" s="5" t="n">
+        <v>31.2</v>
+      </c>
+      <c r="D231" s="5" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="E231" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="F231" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G231" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H231" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I231" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J231" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K231" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="B232" s="4" t="n">
+        <v>44230.375</v>
+      </c>
+      <c r="C232" s="5" t="n">
+        <v>31.5</v>
+      </c>
+      <c r="D232" s="5" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="E232" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="F232" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G232" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H232" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I232" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J232" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K232" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="B233" s="4" t="n">
+        <v>44230.38541666666</v>
+      </c>
+      <c r="C233" s="5" t="n">
+        <v>31.76</v>
+      </c>
+      <c r="D233" s="5" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="E233" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="F233" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G233" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H233" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I233" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J233" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K233" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="B234" s="4" t="n">
+        <v>44230.39583333334</v>
+      </c>
+      <c r="C234" s="5" t="n">
+        <v>32.03</v>
+      </c>
+      <c r="D234" s="5" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="E234" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="F234" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G234" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H234" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I234" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J234" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K234" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="B235" s="4" t="n">
+        <v>44230.40625</v>
+      </c>
+      <c r="C235" s="5" t="n">
+        <v>32.29</v>
+      </c>
+      <c r="D235" s="5" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="E235" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="F235" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G235" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H235" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I235" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J235" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K235" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="B236" s="4" t="n">
+        <v>44230.41666666666</v>
+      </c>
+      <c r="C236" s="5" t="n">
+        <v>32.55</v>
+      </c>
+      <c r="D236" s="5" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="E236" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="F236" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G236" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H236" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I236" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J236" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K236" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="B237" s="4" t="n">
+        <v>44230.42708333334</v>
+      </c>
+      <c r="C237" s="5" t="n">
+        <v>32.74</v>
+      </c>
+      <c r="D237" s="5" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="E237" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="F237" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G237" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H237" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I237" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J237" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K237" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="B238" s="4" t="n">
+        <v>44230.4375</v>
+      </c>
+      <c r="C238" s="5" t="n">
+        <v>32.93</v>
+      </c>
+      <c r="D238" s="5" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="E238" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="F238" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G238" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H238" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I238" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J238" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K238" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="B239" s="4" t="n">
+        <v>44230.44791666666</v>
+      </c>
+      <c r="C239" s="5" t="n">
+        <v>33.12</v>
+      </c>
+      <c r="D239" s="5" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="E239" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="F239" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G239" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H239" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I239" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J239" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K239" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="B240" s="4" t="n">
+        <v>44230.45833333334</v>
+      </c>
+      <c r="C240" s="5" t="n">
+        <v>33.31</v>
+      </c>
+      <c r="D240" s="5" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="E240" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="F240" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G240" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H240" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I240" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J240" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K240" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="B241" s="4" t="n">
+        <v>44230.46875</v>
+      </c>
+      <c r="C241" s="5" t="n">
+        <v>33.5</v>
+      </c>
+      <c r="D241" s="5" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="E241" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="F241" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G241" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H241" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I241" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J241" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K241" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="B242" s="4" t="n">
+        <v>44230.47916666666</v>
+      </c>
+      <c r="C242" s="5" t="n">
+        <v>33.69</v>
+      </c>
+      <c r="D242" s="5" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="E242" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="F242" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G242" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H242" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I242" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J242" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K242" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="B243" s="4" t="n">
+        <v>44230.48958333334</v>
+      </c>
+      <c r="C243" s="5" t="n">
+        <v>33.88</v>
+      </c>
+      <c r="D243" s="5" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="E243" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="F243" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G243" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H243" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I243" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J243" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K243" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="B244" s="4" t="n">
+        <v>44230.5</v>
+      </c>
+      <c r="C244" s="5" t="n">
+        <v>34.02</v>
+      </c>
+      <c r="D244" s="5" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="E244" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="F244" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G244" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H244" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I244" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J244" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K244" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="B245" s="4" t="n">
+        <v>44230.51041666666</v>
+      </c>
+      <c r="C245" s="5" t="n">
+        <v>34.16</v>
+      </c>
+      <c r="D245" s="5" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="E245" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="F245" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G245" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H245" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I245" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J245" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K245" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="B246" s="4" t="n">
+        <v>44230.52083333334</v>
+      </c>
+      <c r="C246" s="5" t="n">
+        <v>34.3</v>
+      </c>
+      <c r="D246" s="5" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="E246" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="F246" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G246" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H246" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I246" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J246" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K246" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="B247" s="4" t="n">
+        <v>44230.53125</v>
+      </c>
+      <c r="C247" s="5" t="n">
+        <v>34.44</v>
+      </c>
+      <c r="D247" s="5" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="E247" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="F247" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G247" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H247" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I247" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J247" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K247" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="B248" s="4" t="n">
+        <v>44230.54166666666</v>
+      </c>
+      <c r="C248" s="5" t="n">
+        <v>34.58</v>
+      </c>
+      <c r="D248" s="5" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="E248" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="F248" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G248" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H248" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I248" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J248" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K248" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="B249" s="4" t="n">
+        <v>44230.55208333334</v>
+      </c>
+      <c r="C249" s="5" t="n">
+        <v>34.77</v>
+      </c>
+      <c r="D249" s="5" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="E249" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="F249" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G249" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H249" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I249" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J249" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K249" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="B250" s="4" t="n">
+        <v>44230.5625</v>
+      </c>
+      <c r="C250" s="5" t="n">
+        <v>34.96</v>
+      </c>
+      <c r="D250" s="5" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="E250" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="F250" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G250" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H250" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I250" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J250" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K250" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="B251" s="4" t="n">
+        <v>44230.57291666666</v>
+      </c>
+      <c r="C251" s="5" t="n">
+        <v>35.15</v>
+      </c>
+      <c r="D251" s="5" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="E251" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="F251" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G251" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H251" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I251" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J251" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K251" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="B252" s="4" t="n">
+        <v>44230.58333333334</v>
+      </c>
+      <c r="C252" s="5" t="n">
+        <v>35.34</v>
+      </c>
+      <c r="D252" s="5" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="E252" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="F252" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G252" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H252" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I252" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J252" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K252" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="B253" s="4" t="n">
+        <v>44230.59375</v>
+      </c>
+      <c r="C253" s="5" t="n">
+        <v>35.5</v>
+      </c>
+      <c r="D253" s="5" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="E253" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="F253" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G253" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H253" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I253" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J253" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K253" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="B254" s="4" t="n">
+        <v>44230.60416666666</v>
+      </c>
+      <c r="C254" s="5" t="n">
+        <v>35.64</v>
+      </c>
+      <c r="D254" s="5" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="E254" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="F254" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G254" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H254" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I254" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J254" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K254" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="B255" s="4" t="n">
+        <v>44230.61458333334</v>
+      </c>
+      <c r="C255" s="5" t="n">
+        <v>35.78</v>
+      </c>
+      <c r="D255" s="5" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="E255" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="F255" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G255" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H255" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I255" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J255" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K255" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="B256" s="4" t="n">
+        <v>44230.625</v>
+      </c>
+      <c r="C256" s="5" t="n">
+        <v>35.92</v>
+      </c>
+      <c r="D256" s="5" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="E256" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="F256" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G256" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H256" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I256" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J256" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K256" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="B257" s="4" t="n">
+        <v>44230.63541666666</v>
+      </c>
+      <c r="C257" s="5" t="n">
+        <v>36.09</v>
+      </c>
+      <c r="D257" s="5" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="E257" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="F257" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G257" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H257" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I257" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J257" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K257" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="B258" s="4" t="n">
+        <v>44230.64583333334</v>
+      </c>
+      <c r="C258" s="5" t="n">
+        <v>36.26</v>
+      </c>
+      <c r="D258" s="5" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="E258" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="F258" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G258" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H258" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I258" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J258" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K258" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="B259" s="4" t="n">
+        <v>44230.65625</v>
+      </c>
+      <c r="C259" s="5" t="n">
+        <v>36.43</v>
+      </c>
+      <c r="D259" s="5" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="E259" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="F259" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G259" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H259" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I259" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J259" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K259" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="B260" s="4" t="n">
+        <v>44230.66666666666</v>
+      </c>
+      <c r="C260" s="5" t="n">
+        <v>36.68</v>
+      </c>
+      <c r="D260" s="5" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="E260" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="F260" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G260" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H260" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I260" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J260" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K260" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="B261" s="4" t="n">
+        <v>44230.67708333334</v>
+      </c>
+      <c r="C261" s="5" t="n">
+        <v>36.98</v>
+      </c>
+      <c r="D261" s="5" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="E261" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="F261" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G261" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H261" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I261" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J261" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K261" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="B262" s="4" t="n">
+        <v>44230.6875</v>
+      </c>
+      <c r="C262" s="5" t="n">
+        <v>37.28</v>
+      </c>
+      <c r="D262" s="5" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="E262" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="F262" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G262" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H262" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I262" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J262" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K262" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="B263" s="4" t="n">
+        <v>44230.69791666666</v>
+      </c>
+      <c r="C263" s="5" t="n">
+        <v>37.58</v>
+      </c>
+      <c r="D263" s="5" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="E263" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="F263" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G263" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H263" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I263" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J263" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K263" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="B264" s="4" t="n">
+        <v>44230.70833333334</v>
+      </c>
+      <c r="C264" s="5" t="n">
+        <v>37.88</v>
+      </c>
+      <c r="D264" s="5" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="E264" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="F264" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G264" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H264" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I264" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J264" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K264" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="B265" s="4" t="n">
+        <v>44230.71875</v>
+      </c>
+      <c r="C265" s="5" t="n">
+        <v>38.18</v>
+      </c>
+      <c r="D265" s="5" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="E265" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="F265" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G265" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H265" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I265" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J265" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K265" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="B266" s="4" t="n">
+        <v>44230.72916666666</v>
+      </c>
+      <c r="C266" s="5" t="n">
+        <v>38.48</v>
+      </c>
+      <c r="D266" s="5" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="E266" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="F266" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G266" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H266" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I266" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J266" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K266" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="B267" s="4" t="n">
+        <v>44230.73958333334</v>
+      </c>
+      <c r="C267" s="5" t="n">
+        <v>38.78</v>
+      </c>
+      <c r="D267" s="5" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="E267" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="F267" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G267" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H267" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I267" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J267" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K267" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="B268" s="4" t="n">
+        <v>44230.75</v>
+      </c>
+      <c r="C268" s="5" t="n">
+        <v>39.08</v>
+      </c>
+      <c r="D268" s="5" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="E268" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="F268" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G268" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H268" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I268" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J268" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K268" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="B269" s="4" t="n">
+        <v>44230.76041666666</v>
+      </c>
+      <c r="C269" s="5" t="n">
+        <v>39.38</v>
+      </c>
+      <c r="D269" s="5" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="E269" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="F269" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G269" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H269" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I269" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J269" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K269" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="B270" s="4" t="n">
+        <v>44230.77083333334</v>
+      </c>
+      <c r="C270" s="5" t="n">
+        <v>39.68</v>
+      </c>
+      <c r="D270" s="5" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="E270" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="F270" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G270" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H270" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I270" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J270" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K270" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="B271" s="4" t="n">
+        <v>44230.78125</v>
+      </c>
+      <c r="C271" s="5" t="n">
+        <v>39.98</v>
+      </c>
+      <c r="D271" s="5" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="E271" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="F271" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G271" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H271" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I271" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J271" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K271" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="B272" s="4" t="n">
+        <v>44230.79166666666</v>
+      </c>
+      <c r="C272" s="5" t="n">
+        <v>40.28</v>
+      </c>
+      <c r="D272" s="5" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="E272" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="F272" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G272" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H272" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I272" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J272" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K272" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="B273" s="4" t="n">
+        <v>44230.80208333334</v>
+      </c>
+      <c r="C273" s="5" t="n">
+        <v>40.58</v>
+      </c>
+      <c r="D273" s="5" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="E273" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="F273" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G273" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H273" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I273" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J273" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K273" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="B274" s="4" t="n">
+        <v>44230.8125</v>
+      </c>
+      <c r="C274" s="5" t="n">
+        <v>40.88</v>
+      </c>
+      <c r="D274" s="5" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="E274" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="F274" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G274" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H274" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I274" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J274" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K274" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="B275" s="4" t="n">
+        <v>44230.82291666666</v>
+      </c>
+      <c r="C275" s="5" t="n">
+        <v>41.18</v>
+      </c>
+      <c r="D275" s="5" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="E275" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="F275" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G275" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H275" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I275" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J275" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K275" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="B276" s="4" t="n">
+        <v>44230.83333333334</v>
+      </c>
+      <c r="C276" s="5" t="n">
+        <v>41.48</v>
+      </c>
+      <c r="D276" s="5" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="E276" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="F276" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G276" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H276" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I276" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J276" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K276" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="B277" s="4" t="n">
+        <v>44230.84375</v>
+      </c>
+      <c r="C277" s="5" t="n">
+        <v>41.78</v>
+      </c>
+      <c r="D277" s="5" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="E277" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="F277" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G277" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H277" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I277" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J277" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K277" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="B278" s="4" t="n">
+        <v>44230.85416666666</v>
+      </c>
+      <c r="C278" s="5" t="n">
+        <v>42.08</v>
+      </c>
+      <c r="D278" s="5" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="E278" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="F278" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G278" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H278" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I278" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J278" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K278" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="B279" s="4" t="n">
+        <v>44230.86458333334</v>
+      </c>
+      <c r="C279" s="5" t="n">
+        <v>42.38</v>
+      </c>
+      <c r="D279" s="5" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="E279" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="F279" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G279" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H279" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I279" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J279" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K279" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="B280" s="4" t="n">
+        <v>44230.875</v>
+      </c>
+      <c r="C280" s="5" t="n">
+        <v>42.68</v>
+      </c>
+      <c r="D280" s="5" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="E280" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="F280" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G280" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H280" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I280" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J280" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K280" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="B281" s="4" t="n">
+        <v>44230.88541666666</v>
+      </c>
+      <c r="C281" s="5" t="n">
+        <v>42.75</v>
+      </c>
+      <c r="D281" s="5" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="E281" s="6" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="F281" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G281" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H281" s="6" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="I281" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J281" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K281" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="B282" s="4" t="n">
+        <v>44230.89583333334</v>
+      </c>
+      <c r="C282" s="5" t="n">
+        <v>42.83</v>
+      </c>
+      <c r="D282" s="5" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="E282" s="6" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="F282" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G282" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H282" s="6" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="I282" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J282" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K282" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="B283" s="4" t="n">
+        <v>44230.90625</v>
+      </c>
+      <c r="C283" s="5" t="n">
+        <v>42.9</v>
+      </c>
+      <c r="D283" s="5" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="E283" s="6" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="F283" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G283" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H283" s="6" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="I283" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J283" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K283" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="B284" s="4" t="n">
+        <v>44230.91666666666</v>
+      </c>
+      <c r="C284" s="5" t="n">
+        <v>42.93</v>
+      </c>
+      <c r="D284" s="5" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="E284" s="6" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="F284" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G284" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H284" s="6" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="I284" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J284" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K284" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="B285" s="4" t="n">
+        <v>44230.92708333334</v>
+      </c>
+      <c r="C285" s="5" t="n">
+        <v>42.95</v>
+      </c>
+      <c r="D285" s="5" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="E285" s="6" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="F285" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G285" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H285" s="6" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="I285" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J285" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K285" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="B286" s="4" t="n">
+        <v>44230.9375</v>
+      </c>
+      <c r="C286" s="5" t="n">
+        <v>42.98</v>
+      </c>
+      <c r="D286" s="5" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="E286" s="6" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="F286" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G286" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H286" s="6" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="I286" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J286" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K286" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="B287" s="4" t="n">
+        <v>44230.94791666666</v>
+      </c>
+      <c r="C287" s="5" t="n">
+        <v>43</v>
+      </c>
+      <c r="D287" s="5" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="E287" s="6" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="F287" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G287" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H287" s="6" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="I287" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J287" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K287" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="B288" s="4" t="n">
+        <v>44230.95833333334</v>
+      </c>
+      <c r="C288" s="5" t="n">
+        <v>43.03</v>
+      </c>
+      <c r="D288" s="5" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="E288" s="6" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="F288" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G288" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H288" s="6" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="I288" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J288" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K288" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="B289" s="4" t="n">
+        <v>44230.96875</v>
+      </c>
+      <c r="C289" s="5" t="n">
+        <v>43.05</v>
+      </c>
+      <c r="D289" s="5" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="E289" s="6" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="F289" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G289" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H289" s="6" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="I289" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J289" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K289" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="B290" s="4" t="n">
+        <v>44230.97916666666</v>
+      </c>
+      <c r="C290" s="5" t="n">
+        <v>43.08</v>
+      </c>
+      <c r="D290" s="5" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="E290" s="6" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="F290" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G290" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H290" s="6" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="I290" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J290" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K290" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="B291" s="4" t="n">
+        <v>44230.98958333334</v>
+      </c>
+      <c r="C291" s="5" t="n">
+        <v>43.1</v>
+      </c>
+      <c r="D291" s="5" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="E291" s="6" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="F291" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G291" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H291" s="6" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="I291" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J291" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K291" s="6" t="n">
         <v>0</v>
       </c>
     </row>
